--- a/biology/Botanique/Ponapea/Ponapea.xlsx
+++ b/biology/Botanique/Ponapea/Ponapea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ponapea est un genre de palmiers originaire de certaines îles du  nord-ouest de l’océan Pacifique. Le genre se compose de quatre espèces et a souvent été considéré comme faisant partie du genre Ptychosperma. Trois des espèces sont endémiques aux îles Carolines, la quatrième se trouve dans l'archipel Bismarck en Nouvelle-Bretagne[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ponapea est un genre de palmiers originaire de certaines îles du  nord-ouest de l’océan Pacifique. Le genre se compose de quatre espèces et a souvent été considéré comme faisant partie du genre Ptychosperma. Trois des espèces sont endémiques aux îles Carolines, la quatrième se trouve dans l'archipel Bismarck en Nouvelle-Bretagne.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Areceae
 Sous-tribu des Ptychospermatinae
-Le genre Ponapea partage sa sous-tribu avec treize autres genres : Ptychosperma, Adonidia, Balaka, Veitchia, Carpentaria, Wodyetia, Drymophloeus, Normanbya, Brassiophoenix,  Ptychococcus,  Jailoloa, Manjekia et Wallaceodoxa[2].
+Le genre Ponapea partage sa sous-tribu avec treize autres genres : Ptychosperma, Adonidia, Balaka, Veitchia, Carpentaria, Wodyetia, Drymophloeus, Normanbya, Brassiophoenix,  Ptychococcus,  Jailoloa, Manjekia et Wallaceodoxa.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon  World Checklist of Selected Plant Families (WCSP)  (24 janvier 2021)[3]  et Plants of the World online (POWO)                (24 janvier 2021)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon  World Checklist of Selected Plant Families (WCSP)  (24 janvier 2021)  et Plants of the World online (POWO)                (24 janvier 2021) :
 Ponapea hentyi        	(Essig) C.Lewis &amp; Zona	 - Nouvelle-Bretagne
 Ponapea hosinoi 		 Kaneh. 			- Pohnpei
 Ponapea ledermanniana 		 Becc.  		 - Iles Carolines
@@ -580,7 +596,9 @@
           <t>liens externes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Référence World Checklist of Selected Plant Families (WCSP) : Ponapea  Becc. (1924)  (consulté le 24 janvier 2021)
 (en) Référence UICN : taxon  Ponapea  (consulté le 7 janvier 2023)
